--- a/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
+++ b/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Change Request Form" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Change Request Form For Custome" sheetId="3" r:id="rId1"/>
+    <sheet name="Change Request Form" sheetId="1" r:id="rId2"/>
+    <sheet name="CCB Desision Form" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc87675428" localSheetId="0">'Change Request Form'!$A$1</definedName>
-    <definedName name="Check23" localSheetId="1">Sheet1!$B$5</definedName>
-    <definedName name="Check3" localSheetId="0">'Change Request Form'!$D$12</definedName>
-    <definedName name="Check5" localSheetId="0">'Change Request Form'!$C$7</definedName>
-    <definedName name="Check6" localSheetId="0">'Change Request Form'!$B$16</definedName>
+    <definedName name="_Toc87675428" localSheetId="1">'Change Request Form'!#REF!</definedName>
+    <definedName name="Check23" localSheetId="2">'CCB Desision Form'!$B$4</definedName>
+    <definedName name="Check3" localSheetId="1">'Change Request Form'!$D$9</definedName>
+    <definedName name="Check5" localSheetId="1">'Change Request Form'!$C$5</definedName>
+    <definedName name="Check6" localSheetId="1">'Change Request Form'!$B$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Change Request Form</t>
   </si>
@@ -37,6 +38,90 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>The reason to change</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link: </t>
+  </si>
+  <si>
+    <t>Approval Signature</t>
+  </si>
+  <si>
+    <t>Date Signed</t>
+  </si>
+  <si>
+    <t>Change Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2.) CHANGE CONTROL BOARD – DECISION</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Explain to decision</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Control Board Team</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>The date the CR was created.</t>
+  </si>
+  <si>
+    <t>Assigned by the Change Manager.</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>A brief description of the change request.</t>
+  </si>
+  <si>
+    <t>Description of the desired change, the impact, or benefits of a change should also be described.</t>
+  </si>
+  <si>
+    <t>Submitter</t>
+  </si>
+  <si>
+    <t>Name of the person completing the CR Form and who can answer questions regarding the suggested change.</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Phone number of the submitter.</t>
+  </si>
+  <si>
+    <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Email of the submitter.</t>
+  </si>
+  <si>
+    <t>A code that provides a recommended categorization of the urgency of the requested change (High, Medium, Low).</t>
   </si>
   <si>
     <r>
@@ -45,115 +130,37 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
   </si>
   <si>
-    <t>Date Required</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>The reason to change</t>
-  </si>
-  <si>
-    <t>Influence</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link: </t>
-  </si>
-  <si>
-    <t>Approval Signature</t>
-  </si>
-  <si>
-    <t>Date Signed</t>
-  </si>
-  <si>
-    <t>Change Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2.) CHANGE CONTROL BOARD – DECISION</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Explain to decision</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Control Board Team</t>
+    <t>List reason for the change</t>
+  </si>
+  <si>
+    <t>Comments for change</t>
+  </si>
+  <si>
+    <t>The date was created.</t>
+  </si>
+  <si>
+    <t>Conditions of the decision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -164,15 +171,92 @@
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="36"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -184,18 +268,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FFE0E0E0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0E0E0"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -277,107 +361,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -410,10 +558,6 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -457,13 +601,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>9524</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -539,13 +683,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1285875</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -621,13 +765,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -703,13 +847,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>6</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -769,7 +913,7 @@
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
                 </a:rPr>
-                <a:t> Design</a:t>
+                <a:t>Other</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -785,13 +929,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -866,14 +1010,14 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>171451</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1219201</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:colOff>1219200</xdr:colOff>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -949,13 +1093,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1031,13 +1175,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>8</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1113,13 +1257,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1195,13 +1339,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1281,15 +1425,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>762000</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>1057275</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1009650</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>257175</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1362,98 +1506,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1095375</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2050" name="Check Box 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2050"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Segoe UI"/>
-                </a:rPr>
-                <a:t> Approved with Conditions</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>276225</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1811,11 +1873,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1828,187 +1996,177 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="26" t="s">
+    <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="12"/>
-      <c r="L8" s="25"/>
-    </row>
-    <row r="9" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="B10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A2:F2"/>
+  <mergeCells count="15">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2025,13 +2183,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2047,13 +2205,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1285875</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2069,13 +2227,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2091,13 +2249,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>6</xdr:row>
+                    <xdr:row>4</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2113,13 +2271,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>314325</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2135,13 +2293,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2157,13 +2315,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2179,13 +2337,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1038225</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>8</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2201,13 +2359,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2223,13 +2381,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2243,11 +2401,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2259,98 +2417,112 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="30"/>
+      <c r="B7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="24"/>
+      <c r="A8" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B5:G5"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2365,15 +2537,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>762000</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>1057275</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1009650</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>257175</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2382,42 +2554,20 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="2050" r:id="rId4" name="Check Box 2">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>3</xdr:col>
-                    <xdr:colOff>1095375</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId5" name="Check Box 3">
+            <control shapeId="2051" r:id="rId4" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>457200</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>276225</xdr:rowOff>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>409575</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>266700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
+++ b/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
@@ -4,26 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request Form For Custome" sheetId="3" r:id="rId1"/>
     <sheet name="Change Request Form" sheetId="1" r:id="rId2"/>
     <sheet name="CCB Desision Form" sheetId="2" r:id="rId3"/>
+    <sheet name="INITIAL ANALYSIS" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc87675428" localSheetId="1">'Change Request Form'!#REF!</definedName>
     <definedName name="Check23" localSheetId="2">'CCB Desision Form'!$B$4</definedName>
-    <definedName name="Check3" localSheetId="1">'Change Request Form'!$D$9</definedName>
-    <definedName name="Check5" localSheetId="1">'Change Request Form'!$C$5</definedName>
-    <definedName name="Check6" localSheetId="1">'Change Request Form'!$B$12</definedName>
+    <definedName name="Check3" localSheetId="1">'Change Request Form'!$D$10</definedName>
+    <definedName name="Check5" localSheetId="1">'Change Request Form'!$C$6</definedName>
+    <definedName name="Check6" localSheetId="1">'Change Request Form'!$B$13</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>Change Request Form</t>
   </si>
@@ -149,12 +150,27 @@
   <si>
     <t>Conditions of the decision</t>
   </si>
+  <si>
+    <t>2. INITIAL ANALYSIS</t>
+  </si>
+  <si>
+    <t>Impact on working time</t>
+  </si>
+  <si>
+    <t>Impact to schedule</t>
+  </si>
+  <si>
+    <t>Recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Initial Anlysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +274,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF595959"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -279,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -403,11 +444,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -419,43 +475,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -464,55 +500,93 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,10 +596,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,13 +717,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>323850</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -683,13 +799,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1285875</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -765,13 +881,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>723900</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -847,13 +963,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1066800</xdr:colOff>
-          <xdr:row>4</xdr:row>
+          <xdr:row>5</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -929,13 +1045,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>485775</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1011,13 +1127,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1093,13 +1209,13 @@
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>390525</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1175,13 +1291,13 @@
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>1038225</xdr:colOff>
-          <xdr:row>8</xdr:row>
+          <xdr:row>9</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1257,13 +1373,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>285750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1339,13 +1455,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1266825</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>295275</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -1876,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,10 +2003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1905,66 +2021,66 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1980,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,176 +2113,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+    <row r="7" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="26" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
+  <mergeCells count="16">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2183,13 +2312,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>323850</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2205,13 +2334,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>57150</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1285875</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2227,13 +2356,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>723900</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2249,13 +2378,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1066800</xdr:colOff>
-                    <xdr:row>4</xdr:row>
+                    <xdr:row>5</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2271,13 +2400,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>485775</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>314325</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2293,13 +2422,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>171450</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1219200</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2315,13 +2444,13 @@
                   <from>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>47625</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2337,13 +2466,13 @@
                   <from>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1038225</xdr:colOff>
-                    <xdr:row>8</xdr:row>
+                    <xdr:row>9</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2359,13 +2488,13 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>285750</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2381,13 +2510,13 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>38100</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1266825</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>295275</xdr:rowOff>
                   </to>
                 </anchor>
@@ -2406,7 +2535,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,98 +2547,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="33"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="35" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2578,4 +2707,100 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
+++ b/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request Form For Custome" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Change Request Form</t>
   </si>
@@ -68,9 +68,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2.) CHANGE CONTROL BOARD – DECISION</t>
-  </si>
-  <si>
     <t>Decision</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
   </si>
   <si>
     <t>Email of the submitter.</t>
-  </si>
-  <si>
-    <t>A code that provides a recommended categorization of the urgency of the requested change (High, Medium, Low).</t>
   </si>
   <si>
     <r>
@@ -151,9 +145,6 @@
     <t>Conditions of the decision</t>
   </si>
   <si>
-    <t>2. INITIAL ANALYSIS</t>
-  </si>
-  <si>
     <t>Impact on working time</t>
   </si>
   <si>
@@ -164,6 +155,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Initial Anlysis</t>
+  </si>
+  <si>
+    <t>Description of the desired change, the impact should also be described.</t>
+  </si>
+  <si>
+    <t>Benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List benefits of a change(should be described.)</t>
+  </si>
+  <si>
+    <t>1.) CHANGE CONTROL BOARD – DECISION</t>
+  </si>
+  <si>
+    <t>Other impact</t>
+  </si>
+  <si>
+    <t>1. INITIAL ANALYSIS</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,6 +503,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,7 +626,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -625,24 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,6 +692,18 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -710,6 +740,257 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>428625</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>1781175</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> High</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>2219325</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>3571875</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>390525</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Medium</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>4019550</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>5372100</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>400050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3076" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Segoe UI"/>
+                </a:rPr>
+                <a:t> Low</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1534,7 +1815,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1989,11 +2270,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,10 +2284,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2014,7 +2295,7 @@
     </row>
     <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -2022,10 +2303,10 @@
     </row>
     <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,15 +2314,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,48 +2330,128 @@
         <v>4</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B12" s="11"/>
+    </row>
     <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3074" r:id="rId3" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>428625</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>1781175</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId4" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>2219325</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>85725</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>3571875</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>390525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3076" r:id="rId5" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>4019550</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>95250</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>5372100</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>400050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
@@ -2113,49 +2474,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="B4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -2167,10 +2528,10 @@
       <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="4" t="s">
         <v>13</v>
       </c>
@@ -2179,38 +2540,38 @@
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -2218,65 +2579,65 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2535,7 +2896,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,15 +2908,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="A1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
@@ -2567,78 +2928,78 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
     </row>
     <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="37" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2711,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2726,80 +3087,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="61" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="46"/>
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
+++ b/trunk/1. Project management/5. Change management plan/AS_PM_Change Request FormTemplate.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Change Request Form For Custome" sheetId="3" r:id="rId1"/>
     <sheet name="Change Request Form" sheetId="1" r:id="rId2"/>
-    <sheet name="CCB Desision Form" sheetId="2" r:id="rId3"/>
-    <sheet name="INITIAL ANALYSIS" sheetId="4" r:id="rId4"/>
+    <sheet name="INITIAL ANALYSIS" sheetId="4" r:id="rId3"/>
+    <sheet name="CCB Desision Form" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc87675428" localSheetId="1">'Change Request Form'!#REF!</definedName>
-    <definedName name="Check23" localSheetId="2">'CCB Desision Form'!$B$4</definedName>
+    <definedName name="Check23" localSheetId="3">'CCB Desision Form'!$B$4</definedName>
     <definedName name="Check3" localSheetId="1">'Change Request Form'!$D$10</definedName>
     <definedName name="Check5" localSheetId="1">'Change Request Form'!$C$6</definedName>
     <definedName name="Check6" localSheetId="1">'Change Request Form'!$B$13</definedName>
@@ -183,14 +183,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -626,6 +626,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -634,15 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -800,18 +800,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> High</a:t>
               </a:r>
@@ -882,18 +883,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Medium</a:t>
               </a:r>
@@ -964,18 +966,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Low</a:t>
               </a:r>
@@ -1051,18 +1054,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Management</a:t>
               </a:r>
@@ -1133,18 +1137,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Technical</a:t>
               </a:r>
@@ -1215,18 +1220,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Requirement</a:t>
               </a:r>
@@ -1297,18 +1303,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t>Other</a:t>
               </a:r>
@@ -1379,18 +1386,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t>  Low</a:t>
               </a:r>
@@ -1461,18 +1469,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Medium</a:t>
               </a:r>
@@ -1543,18 +1552,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> High</a:t>
               </a:r>
@@ -1625,18 +1635,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Mandatory</a:t>
               </a:r>
@@ -1707,18 +1718,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Yes</a:t>
               </a:r>
@@ -1789,18 +1801,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> No</a:t>
               </a:r>
@@ -1876,18 +1889,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Approved</a:t>
               </a:r>
@@ -1958,18 +1972,19 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="vi-VN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Segoe UI"/>
+                  <a:cs typeface="Segoe UI"/>
                 </a:rPr>
                 <a:t> Rejected</a:t>
               </a:r>
@@ -2273,27 +2288,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="33" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2301,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2309,7 +2324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2317,7 +2332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>41</v>
       </c>
@@ -2341,7 +2356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>25</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2357,7 +2372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2365,27 +2380,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="51" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3074" r:id="rId3" name="Check Box 2">
+            <control shapeId="3074" r:id="rId4" name="Check Box 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2407,7 +2423,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3075" r:id="rId4" name="Check Box 3">
+            <control shapeId="3075" r:id="rId5" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2429,7 +2445,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="3076" r:id="rId5" name="Check Box 4">
+            <control shapeId="3076" r:id="rId6" name="Check Box 4">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2459,18 +2475,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="33" x14ac:dyDescent="0.45">
@@ -2483,8 +2499,8 @@
       <c r="E1" s="26"/>
       <c r="F1" s="26"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>12</v>
       </c>
@@ -2494,7 +2510,7 @@
       <c r="E3" s="34"/>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -2506,7 +2522,7 @@
       <c r="E4" s="37"/>
       <c r="F4" s="38"/>
     </row>
-    <row r="5" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2518,7 +2534,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="43"/>
     </row>
-    <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
@@ -2536,7 +2552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -2549,7 +2565,7 @@
       <c r="F7" s="23"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2577,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="40"/>
     </row>
-    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2573,7 +2589,7 @@
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -2583,7 +2599,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2595,7 +2611,7 @@
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2623,7 @@
       <c r="E12" s="28"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>8</v>
       </c>
@@ -2617,7 +2633,7 @@
       <c r="E13" s="28"/>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="24" t="s">
         <v>9</v>
@@ -2627,7 +2643,7 @@
       <c r="E14" s="32"/>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -2892,6 +2908,111 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2899,12 +3020,12 @@
       <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" x14ac:dyDescent="0.45">
@@ -2927,7 +3048,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
@@ -2938,7 +3059,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
-    <row r="4" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -2949,7 +3070,7 @@
       <c r="F4" s="51"/>
       <c r="G4" s="52"/>
     </row>
-    <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -2962,7 +3083,7 @@
       <c r="F5" s="48"/>
       <c r="G5" s="49"/>
     </row>
-    <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +3096,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
@@ -2988,7 +3109,7 @@
       <c r="F7" s="48"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -3068,109 +3189,4 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-    </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
-    </row>
-    <row r="6" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
-    </row>
-    <row r="9" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B7:E7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>